--- a/基于模型的需求分析与架构定义/EPF问题.xlsx
+++ b/基于模型的需求分析与架构定义/EPF问题.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,79 @@
   </si>
   <si>
     <t>更新能力模式后，可交付流程中的能力模型不能自动更新？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布的角色的图形不显示负责的交付物？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布工作产品依赖关系图，点击某个工作产物，然后返回，即可显示工作产品分解表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要发布的图应该在Delivery Processes里边创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作产品的依赖关系不能自动生成？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在可交付流程中，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>copy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>deep copy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的区别？</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -88,9 +161,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -385,44 +463,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="52.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="50.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3" ht="41.25">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="B5" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/基于模型的需求分析与架构定义/EPF问题.xlsx
+++ b/基于模型的需求分析与架构定义/EPF问题.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,18 @@
       </rPr>
       <t>的区别？</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何在另外一个插件中复用方法内容？将方法内容复制到另外一个插件后，任务、角色和交付物之间的关联关系不见了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制的时候，需要将有依赖关系的包同时复制。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何在另外一个插件中复用模式和可交付流程？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,17 +475,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="50.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="33.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="37.625" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -529,6 +541,19 @@
     <row r="9" spans="1:3">
       <c r="B9" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="41.25">
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/基于模型的需求分析与架构定义/EPF问题.xlsx
+++ b/基于模型的需求分析与架构定义/EPF问题.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huang\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A337DF-1594-4790-9796-EE0F033358AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +53,6 @@
   </si>
   <si>
     <t>解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布工作产品依赖关系图，点击某个工作产物，然后返回，即可显示工作产品分解表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -115,23 +117,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如何在另外一个插件中复用方法内容？将方法内容复制到另外一个插件后，任务、角色和交付物之间的关联关系不见了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制的时候，需要将有依赖关系的包同时复制。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何在另外一个插件中复用模式和可交付流程？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>360浏览器不能正常显示，使用IE浏览器可以正常显示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>359浏览器不能正常显示，使用IE浏览器可以正常显示。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,11 +184,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -233,7 +238,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -265,9 +270,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,6 +322,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -474,22 +515,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="50.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="37.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="50.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.08203125" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -500,60 +541,50 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="41.25">
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="41.25">
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -564,12 +595,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -577,12 +608,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
